--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -76,7 +76,7 @@
     <t>I</t>
   </si>
   <si>
-    <t>XD 1/12/2014-1/20/2014, XD 3/3/2014</t>
+    <t>XD 1/7/2014-1/14/2014, XD 1/3/2014</t>
   </si>
   <si>
     <t>105-IRISH-WEBSTER 1</t>
@@ -225,7 +225,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -290,19 +290,11 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -323,22 +315,7 @@
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <numFmt formatCode="GENERAL" numFmtId="164"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <sz val="11"/>
@@ -438,10 +415,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E14" activeCellId="0" pane="topLeft" sqref="E14"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -457,7 +434,7 @@
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="1">
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -469,7 +446,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.9" outlineLevel="0" r="2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>1</v>
@@ -521,7 +498,7 @@
       <c r="A4" s="11" t="n">
         <v>102</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="15" t="s">
         <v>12</v>
       </c>
@@ -535,16 +512,16 @@
       <c r="G4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="18"/>
+      <c r="I4" s="17"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="19" t="n">
+      <c r="A5" s="11" t="n">
         <v>103</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="15" t="s">
         <v>15</v>
       </c>
@@ -567,7 +544,7 @@
       <c r="A6" s="11" t="n">
         <v>104</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
@@ -575,22 +552,22 @@
       <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="16" t="n">
+      <c r="F6" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="12" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="18"/>
+      <c r="I6" s="17"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="11" t="n">
         <v>105</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="15" t="s">
         <v>20</v>
       </c>
@@ -604,10 +581,10 @@
       <c r="G7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -615,7 +592,7 @@
       <c r="A8" s="11" t="n">
         <v>106</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="15" t="s">
         <v>23</v>
       </c>
@@ -632,13 +609,13 @@
       <c r="H8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="18"/>
+      <c r="I8" s="17"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="9">
       <c r="A9" s="11" t="n">
         <v>107</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="15" t="s">
         <v>24</v>
       </c>
@@ -652,24 +629,20 @@
       <c r="G9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="18"/>
-    </row>
+      <c r="I9" s="17"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="14"/>
   </sheetData>
   <conditionalFormatting sqref="C1:C2">
     <cfRule aboveAverage="0" bottom="0" dxfId="0" equalAverage="0" operator="duplicateValues" percent="0" priority="2" rank="0" text="" type="duplicateValues">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5,H8">
+  <conditionalFormatting sqref="C1:C2">
     <cfRule aboveAverage="0" bottom="0" dxfId="1" equalAverage="0" operator="duplicateValues" percent="0" priority="3" rank="0" text="" type="duplicateValues">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C2">
-    <cfRule aboveAverage="0" bottom="0" dxfId="2" equalAverage="0" operator="duplicateValues" percent="0" priority="4" rank="0" text="" type="duplicateValues">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>TEAM  LIST  AS  OF :</t>
   </si>
@@ -61,9 +60,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>NO 4:40</t>
-  </si>
-  <si>
     <t>103-EAGLES-CROWE</t>
   </si>
   <si>
@@ -76,15 +72,9 @@
     <t>I</t>
   </si>
   <si>
-    <t>XD 1/7/2014-1/14/2014, XD 1/3/2014</t>
-  </si>
-  <si>
     <t>105-IRISH-WEBSTER 1</t>
   </si>
   <si>
-    <t>NO 2/17</t>
-  </si>
-  <si>
     <t>Irish 2, Bears 3</t>
   </si>
   <si>
@@ -95,16 +85,25 @@
   </si>
   <si>
     <t>TH ONLY, NO Sat</t>
+  </si>
+  <si>
+    <t>no 1/7/2014</t>
+  </si>
+  <si>
+    <t>no 1/7/2014-1/14/2014, no 1/3/2014</t>
+  </si>
+  <si>
+    <t>NO 1/13/2014</t>
+  </si>
+  <si>
+    <t>no 4:40-5:40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -113,37 +112,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Berlin Sans FB"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="11"/>
       <name val="Berlin Sans FB"/>
       <family val="2"/>
@@ -178,142 +162,81 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="9" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="9" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -321,10 +244,8 @@
         <sz val="11"/>
         <color rgb="FF9C0006"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
-      <numFmt formatCode="GENERAL" numFmtId="164"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -336,10 +257,8 @@
         <sz val="11"/>
         <color rgb="FF9C0006"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
-      <numFmt formatCode="GENERAL" numFmtId="164"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -347,6 +266,7 @@
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -405,36 +325,331 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.280612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.56632653061225"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.14795918367347"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.85714285714286"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.8520408163265"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.8622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.72959183673469"/>
+    <col min="1" max="2" width="8.7109375"/>
+    <col min="3" max="3" width="31.28515625"/>
+    <col min="4" max="4" width="8.7109375"/>
+    <col min="5" max="5" width="7.5703125"/>
+    <col min="6" max="6" width="7.140625"/>
+    <col min="7" max="7" width="5.85546875"/>
+    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875"/>
+    <col min="10" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -446,7 +661,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.9" outlineLevel="0" r="2">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>1</v>
@@ -473,8 +688,8 @@
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="11" t="n">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>101</v>
       </c>
       <c r="B3" s="12"/>
@@ -485,17 +700,19 @@
       <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="12" t="n">
+      <c r="F3" s="12">
         <v>1</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="15"/>
+      <c r="H3" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="I3" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="11" t="n">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>102</v>
       </c>
       <c r="B4" s="12"/>
@@ -506,204 +723,172 @@
       <c r="E4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="12" t="n">
+      <c r="F4" s="12">
         <v>1</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="11" t="n">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>103</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="12" t="n">
+      <c r="F5" s="12">
         <v>1</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="11" t="n">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>104</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="12" t="n">
+      <c r="F6" s="12">
         <v>1</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="11" t="n">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>105</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="12" t="n">
+      <c r="F7" s="12">
         <v>1</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="11" t="n">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>106</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="12" t="n">
+      <c r="F8" s="12">
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="H8" s="15"/>
       <c r="I8" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="9">
-      <c r="A9" s="11" t="n">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>107</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="12" t="n">
+      <c r="F9" s="12">
         <v>1</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="14"/>
   </sheetData>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule aboveAverage="0" bottom="0" dxfId="0" equalAverage="0" operator="duplicateValues" percent="0" priority="2" rank="0" text="" type="duplicateValues">
-      <formula>0</formula>
-    </cfRule>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule aboveAverage="0" bottom="0" dxfId="1" equalAverage="0" operator="duplicateValues" percent="0" priority="3" rank="0" text="" type="duplicateValues">
-      <formula>0</formula>
-    </cfRule>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>TEAM  LIST  AS  OF :</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Team</t>
   </si>
   <si>
@@ -97,6 +94,12 @@
   </si>
   <si>
     <t>no 4:40-5:40</t>
+  </si>
+  <si>
+    <t>Team ID</t>
+  </si>
+  <si>
+    <t>Conference #</t>
   </si>
 </sst>
 </file>
@@ -114,14 +117,6 @@
     <font>
       <sz val="11"/>
       <name val="Berlin Sans FB"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -151,6 +146,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Berlin Sans FB"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -209,31 +211,31 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,12 +635,13 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.7109375"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.28515625"/>
     <col min="4" max="4" width="8.7109375"/>
     <col min="5" max="5" width="7.5703125"/>
@@ -662,192 +665,208 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>101</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="12">
-        <v>1</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="15"/>
+      <c r="H3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>102</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="12">
-        <v>1</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="17"/>
+      <c r="H4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>103</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="12">
-        <v>1</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="15"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
         <v>104</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="12">
-        <v>1</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="17"/>
+      <c r="H6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>105</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="17" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="12">
-        <v>1</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
         <v>106</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="12">
-        <v>1</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="17"/>
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="9">
         <v>107</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="12">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="17"/>
+      <c r="I9" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C2">
@@ -857,7 +876,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>TEAM  LIST  AS  OF :</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>105-IRISH-WEBSTER 1</t>
-  </si>
-  <si>
-    <t>Irish 2, Bears 3</t>
   </si>
   <si>
     <t>106-PATRIOTS</t>
@@ -635,7 +632,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,10 +663,10 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
@@ -714,7 +711,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="13"/>
     </row>
@@ -739,7 +736,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="15"/>
     </row>
@@ -789,7 +786,7 @@
         <v>16</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" s="15"/>
     </row>
@@ -814,10 +811,10 @@
         <v>10</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="I7" s="17">
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -828,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="10" t="s">
@@ -851,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="10" t="s">
@@ -864,7 +861,7 @@
         <v>12</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="15"/>
     </row>
